--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H2">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I2">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J2">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1342866666666667</v>
+        <v>0.043534</v>
       </c>
       <c r="N2">
-        <v>0.40286</v>
+        <v>0.130602</v>
       </c>
       <c r="O2">
-        <v>0.02153794714590123</v>
+        <v>0.00760428821720775</v>
       </c>
       <c r="P2">
-        <v>0.02153794714590123</v>
+        <v>0.007604288217207752</v>
       </c>
       <c r="Q2">
-        <v>1.171497766531111</v>
+        <v>1.163735999372</v>
       </c>
       <c r="R2">
-        <v>10.54347989878</v>
+        <v>10.473623994348</v>
       </c>
       <c r="S2">
-        <v>0.0001528856541167787</v>
+        <v>0.0001789588040107202</v>
       </c>
       <c r="T2">
-        <v>0.0001528856541167788</v>
+        <v>0.0001789588040107203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H3">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I3">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J3">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>16.573342</v>
       </c>
       <c r="O3">
-        <v>0.8860541230872883</v>
+        <v>0.964981158713912</v>
       </c>
       <c r="P3">
-        <v>0.8860541230872881</v>
+        <v>0.9649811587139122</v>
       </c>
       <c r="Q3">
-        <v>48.19449222299622</v>
+        <v>147.6776367536787</v>
       </c>
       <c r="R3">
-        <v>433.750430006966</v>
+        <v>1329.098730783108</v>
       </c>
       <c r="S3">
-        <v>0.006289594977339726</v>
+        <v>0.02270980124944976</v>
       </c>
       <c r="T3">
-        <v>0.006289594977339726</v>
+        <v>0.02270980124944976</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H4">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I4">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J4">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3999079999999999</v>
+        <v>0.03706533333333333</v>
       </c>
       <c r="N4">
-        <v>1.199724</v>
+        <v>0.111196</v>
       </c>
       <c r="O4">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453032</v>
       </c>
       <c r="P4">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453035</v>
       </c>
       <c r="Q4">
-        <v>3.488740471761332</v>
+        <v>0.9908178143226666</v>
       </c>
       <c r="R4">
-        <v>31.39866424585199</v>
+        <v>8.917360328904001</v>
       </c>
       <c r="S4">
-        <v>0.0004552961041046473</v>
+        <v>0.0001523675224787985</v>
       </c>
       <c r="T4">
-        <v>0.0004552961041046474</v>
+        <v>0.0001523675224787986</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H5">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I5">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J5">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.176245</v>
+        <v>0.119881</v>
       </c>
       <c r="N5">
-        <v>0.5287350000000001</v>
+        <v>0.359643</v>
       </c>
       <c r="O5">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="P5">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="Q5">
-        <v>1.537536294461667</v>
+        <v>3.204617892698</v>
       </c>
       <c r="R5">
-        <v>13.837826650155</v>
+        <v>28.84156103428201</v>
       </c>
       <c r="S5">
-        <v>0.0002006553053900487</v>
+        <v>0.0004928047131807128</v>
       </c>
       <c r="T5">
-        <v>0.0002006553053900487</v>
+        <v>0.000492804713180713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>3195.000976</v>
       </c>
       <c r="I6">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J6">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1342866666666667</v>
+        <v>0.043534</v>
       </c>
       <c r="N6">
-        <v>0.40286</v>
+        <v>0.130602</v>
       </c>
       <c r="O6">
-        <v>0.02153794714590123</v>
+        <v>0.00760428821720775</v>
       </c>
       <c r="P6">
-        <v>0.02153794714590123</v>
+        <v>0.007604288217207752</v>
       </c>
       <c r="Q6">
-        <v>143.0153436879289</v>
+        <v>46.36372416306133</v>
       </c>
       <c r="R6">
-        <v>1287.13809319136</v>
+        <v>417.273517467552</v>
       </c>
       <c r="S6">
-        <v>0.01866413662333199</v>
+        <v>0.007129792865548454</v>
       </c>
       <c r="T6">
-        <v>0.01866413662333199</v>
+        <v>0.007129792865548457</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I7">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J7">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>16.573342</v>
       </c>
       <c r="O7">
-        <v>0.8860541230872883</v>
+        <v>0.964981158713912</v>
       </c>
       <c r="P7">
-        <v>0.8860541230872881</v>
+        <v>0.9649811587139122</v>
       </c>
       <c r="Q7">
         <v>5883.538207286867</v>
@@ -889,10 +889,10 @@
         <v>52951.8438655818</v>
       </c>
       <c r="S7">
-        <v>0.7678278295020757</v>
+        <v>0.904767886785</v>
       </c>
       <c r="T7">
-        <v>0.7678278295020757</v>
+        <v>0.9047678867850002</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>3195.000976</v>
       </c>
       <c r="I8">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J8">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.3999079999999999</v>
+        <v>0.03706533333333333</v>
       </c>
       <c r="N8">
-        <v>1.199724</v>
+        <v>0.111196</v>
       </c>
       <c r="O8">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453032</v>
       </c>
       <c r="P8">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453035</v>
       </c>
       <c r="Q8">
-        <v>425.9021501034026</v>
+        <v>39.47459205858845</v>
       </c>
       <c r="R8">
-        <v>3833.119350930624</v>
+        <v>355.271328527296</v>
       </c>
       <c r="S8">
-        <v>0.05558211946157558</v>
+        <v>0.006070385196838685</v>
       </c>
       <c r="T8">
-        <v>0.05558211946157559</v>
+        <v>0.006070385196838687</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>3195.000976</v>
       </c>
       <c r="I9">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J9">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.176245</v>
+        <v>0.119881</v>
       </c>
       <c r="N9">
-        <v>0.5287350000000001</v>
+        <v>0.359643</v>
       </c>
       <c r="O9">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="P9">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="Q9">
-        <v>187.7009823383734</v>
+        <v>127.6733040012854</v>
       </c>
       <c r="R9">
-        <v>1689.30884104536</v>
+        <v>1149.059736011568</v>
       </c>
       <c r="S9">
-        <v>0.02449581064771245</v>
+        <v>0.01963354386260887</v>
       </c>
       <c r="T9">
-        <v>0.02449581064771246</v>
+        <v>0.01963354386260887</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H10">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I10">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J10">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1342866666666667</v>
+        <v>0.043534</v>
       </c>
       <c r="N10">
-        <v>0.40286</v>
+        <v>0.130602</v>
       </c>
       <c r="O10">
-        <v>0.02153794714590123</v>
+        <v>0.00760428821720775</v>
       </c>
       <c r="P10">
-        <v>0.02153794714590123</v>
+        <v>0.007604288217207752</v>
       </c>
       <c r="Q10">
-        <v>0.1134816781622222</v>
+        <v>0.007494320054666665</v>
       </c>
       <c r="R10">
-        <v>1.02133510346</v>
+        <v>0.067448880492</v>
       </c>
       <c r="S10">
-        <v>1.480986229062551E-05</v>
+        <v>1.152473202324629E-06</v>
       </c>
       <c r="T10">
-        <v>1.480986229062551E-05</v>
+        <v>1.15247320232463E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H11">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I11">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J11">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>16.573342</v>
       </c>
       <c r="O11">
-        <v>0.8860541230872883</v>
+        <v>0.964981158713912</v>
       </c>
       <c r="P11">
-        <v>0.8860541230872881</v>
+        <v>0.9649811587139122</v>
       </c>
       <c r="Q11">
-        <v>4.668546549462445</v>
+        <v>0.9510262425035555</v>
       </c>
       <c r="R11">
-        <v>42.016918945162</v>
+        <v>8.559236182531999</v>
       </c>
       <c r="S11">
-        <v>0.0006092660296764137</v>
+        <v>0.0001462483922754727</v>
       </c>
       <c r="T11">
-        <v>0.0006092660296764136</v>
+        <v>0.0001462483922754727</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H12">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I12">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J12">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.3999079999999999</v>
+        <v>0.03706533333333333</v>
       </c>
       <c r="N12">
-        <v>1.199724</v>
+        <v>0.111196</v>
       </c>
       <c r="O12">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453032</v>
       </c>
       <c r="P12">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453035</v>
       </c>
       <c r="Q12">
-        <v>0.3379503868626666</v>
+        <v>0.006380747712888888</v>
       </c>
       <c r="R12">
-        <v>3.041553481763999</v>
+        <v>0.05742672941599999</v>
       </c>
       <c r="S12">
-        <v>4.410402429319961E-05</v>
+        <v>9.812285432511714E-07</v>
       </c>
       <c r="T12">
-        <v>4.410402429319961E-05</v>
+        <v>9.812285432511719E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H13">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I13">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J13">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.176245</v>
+        <v>0.119881</v>
       </c>
       <c r="N13">
-        <v>0.5287350000000001</v>
+        <v>0.359643</v>
       </c>
       <c r="O13">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="P13">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="Q13">
-        <v>0.1489394208983333</v>
+        <v>0.02063735430866667</v>
       </c>
       <c r="R13">
-        <v>1.340454788085</v>
+        <v>0.185736188778</v>
       </c>
       <c r="S13">
-        <v>1.94372549725311E-05</v>
+        <v>3.173603160010082E-06</v>
       </c>
       <c r="T13">
-        <v>1.94372549725311E-05</v>
+        <v>3.173603160010084E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H14">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I14">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J14">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1342866666666667</v>
+        <v>0.043534</v>
       </c>
       <c r="N14">
-        <v>0.40286</v>
+        <v>0.130602</v>
       </c>
       <c r="O14">
-        <v>0.02153794714590123</v>
+        <v>0.00760428821720775</v>
       </c>
       <c r="P14">
-        <v>0.02153794714590123</v>
+        <v>0.007604288217207752</v>
       </c>
       <c r="Q14">
-        <v>20.46299518945333</v>
+        <v>1.88671001318</v>
       </c>
       <c r="R14">
-        <v>184.16695670508</v>
+        <v>16.98039011862</v>
       </c>
       <c r="S14">
-        <v>0.002670511625465389</v>
+        <v>0.0002901374260622248</v>
       </c>
       <c r="T14">
-        <v>0.002670511625465389</v>
+        <v>0.0002901374260622249</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H15">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I15">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J15">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>16.573342</v>
       </c>
       <c r="O15">
-        <v>0.8860541230872883</v>
+        <v>0.964981158713912</v>
       </c>
       <c r="P15">
-        <v>0.8860541230872881</v>
+        <v>0.9649811587139122</v>
       </c>
       <c r="Q15">
-        <v>841.8314491862307</v>
+        <v>239.4227523564467</v>
       </c>
       <c r="R15">
-        <v>7576.483042676076</v>
+        <v>2154.80477120802</v>
       </c>
       <c r="S15">
-        <v>0.1098627376354411</v>
+        <v>0.03681832429158027</v>
       </c>
       <c r="T15">
-        <v>0.1098627376354411</v>
+        <v>0.03681832429158027</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H16">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I16">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J16">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.3999079999999999</v>
+        <v>0.03706533333333333</v>
       </c>
       <c r="N16">
-        <v>1.199724</v>
+        <v>0.111196</v>
       </c>
       <c r="O16">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453032</v>
       </c>
       <c r="P16">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453035</v>
       </c>
       <c r="Q16">
-        <v>60.93915117080799</v>
+        <v>1.606365956306667</v>
       </c>
       <c r="R16">
-        <v>548.4523605372719</v>
+        <v>14.45729360676</v>
       </c>
       <c r="S16">
-        <v>0.007952829492503194</v>
+        <v>0.0002470262417758928</v>
       </c>
       <c r="T16">
-        <v>0.007952829492503196</v>
+        <v>0.0002470262417758929</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H17">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I17">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J17">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.176245</v>
+        <v>0.119881</v>
       </c>
       <c r="N17">
-        <v>0.5287350000000001</v>
+        <v>0.359643</v>
       </c>
       <c r="O17">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="P17">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="Q17">
-        <v>26.85672879287</v>
+        <v>5.195495086370001</v>
       </c>
       <c r="R17">
-        <v>241.71055913583</v>
+        <v>46.75945577733001</v>
       </c>
       <c r="S17">
-        <v>0.003504922216875446</v>
+        <v>0.0007989609218947393</v>
       </c>
       <c r="T17">
-        <v>0.003504922216875447</v>
+        <v>0.0007989609218947395</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H18">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I18">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J18">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.1342866666666667</v>
+        <v>0.043534</v>
       </c>
       <c r="N18">
-        <v>0.40286</v>
+        <v>0.130602</v>
       </c>
       <c r="O18">
-        <v>0.02153794714590123</v>
+        <v>0.00760428821720775</v>
       </c>
       <c r="P18">
-        <v>0.02153794714590123</v>
+        <v>0.007604288217207752</v>
       </c>
       <c r="Q18">
-        <v>0.03368504937555555</v>
+        <v>0.01867649231733333</v>
       </c>
       <c r="R18">
-        <v>0.30316544438</v>
+        <v>0.168088430856</v>
       </c>
       <c r="S18">
-        <v>4.396048336470333E-06</v>
+        <v>2.872062675752089E-06</v>
       </c>
       <c r="T18">
-        <v>4.396048336470333E-06</v>
+        <v>2.872062675752089E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H19">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I19">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J19">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>16.573342</v>
       </c>
       <c r="O19">
-        <v>0.8860541230872883</v>
+        <v>0.964981158713912</v>
       </c>
       <c r="P19">
-        <v>0.8860541230872881</v>
+        <v>0.9649811587139122</v>
       </c>
       <c r="Q19">
-        <v>1.385776308365111</v>
+        <v>2.370039467508445</v>
       </c>
       <c r="R19">
-        <v>12.471986775286</v>
+        <v>21.330355207576</v>
       </c>
       <c r="S19">
-        <v>0.0001808499541499625</v>
+        <v>0.0003644636144214826</v>
       </c>
       <c r="T19">
-        <v>0.0001808499541499625</v>
+        <v>0.0003644636144214827</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H20">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I20">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J20">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.3999079999999999</v>
+        <v>0.03706533333333333</v>
       </c>
       <c r="N20">
-        <v>1.199724</v>
+        <v>0.111196</v>
       </c>
       <c r="O20">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453032</v>
       </c>
       <c r="P20">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453035</v>
       </c>
       <c r="Q20">
-        <v>0.1003146556546667</v>
+        <v>0.01590137394311111</v>
       </c>
       <c r="R20">
-        <v>0.9028319008919998</v>
+        <v>0.143112365488</v>
       </c>
       <c r="S20">
-        <v>1.309150745773602E-05</v>
+        <v>2.445306207354629E-06</v>
       </c>
       <c r="T20">
-        <v>1.309150745773602E-05</v>
+        <v>2.44530620735463E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H21">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I21">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J21">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.176245</v>
+        <v>0.119881</v>
       </c>
       <c r="N21">
-        <v>0.5287350000000001</v>
+        <v>0.359643</v>
       </c>
       <c r="O21">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="P21">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="Q21">
-        <v>0.04421005952833334</v>
+        <v>0.05143006788933334</v>
       </c>
       <c r="R21">
-        <v>0.3978905357550001</v>
+        <v>0.462870611004</v>
       </c>
       <c r="S21">
-        <v>5.769608839754856E-06</v>
+        <v>7.908892948771907E-06</v>
       </c>
       <c r="T21">
-        <v>5.769608839754856E-06</v>
+        <v>7.908892948771909E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H22">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I22">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J22">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1342866666666667</v>
+        <v>0.043534</v>
       </c>
       <c r="N22">
-        <v>0.40286</v>
+        <v>0.130602</v>
       </c>
       <c r="O22">
-        <v>0.02153794714590123</v>
+        <v>0.00760428821720775</v>
       </c>
       <c r="P22">
-        <v>0.02153794714590123</v>
+        <v>0.007604288217207752</v>
       </c>
       <c r="Q22">
-        <v>0.2391285197444445</v>
+        <v>0.008938676595333331</v>
       </c>
       <c r="R22">
-        <v>2.1521566777</v>
+        <v>0.08044808935799999</v>
       </c>
       <c r="S22">
-        <v>3.120733235997642E-05</v>
+        <v>1.374585708272932E-06</v>
       </c>
       <c r="T22">
-        <v>3.120733235997642E-05</v>
+        <v>1.374585708272933E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H23">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I23">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J23">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>16.573342</v>
       </c>
       <c r="O23">
-        <v>0.8860541230872883</v>
+        <v>0.964981158713912</v>
       </c>
       <c r="P23">
-        <v>0.8860541230872881</v>
+        <v>0.9649811587139122</v>
       </c>
       <c r="Q23">
-        <v>9.83755830729889</v>
+        <v>1.134314514646444</v>
       </c>
       <c r="R23">
-        <v>88.53802476569001</v>
+        <v>10.208830631818</v>
       </c>
       <c r="S23">
-        <v>0.001283844988605362</v>
+        <v>0.0001744343811849707</v>
       </c>
       <c r="T23">
-        <v>0.001283844988605362</v>
+        <v>0.0001744343811849707</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H24">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I24">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J24">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.3999079999999999</v>
+        <v>0.03706533333333333</v>
       </c>
       <c r="N24">
-        <v>1.199724</v>
+        <v>0.111196</v>
       </c>
       <c r="O24">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453032</v>
       </c>
       <c r="P24">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453035</v>
       </c>
       <c r="Q24">
-        <v>0.7121288393533333</v>
+        <v>0.00761048898711111</v>
       </c>
       <c r="R24">
-        <v>6.409159554179999</v>
+        <v>0.068494400884</v>
       </c>
       <c r="S24">
-        <v>9.293597182207301E-05</v>
+        <v>1.170337609049762E-06</v>
       </c>
       <c r="T24">
-        <v>9.293597182207301E-05</v>
+        <v>1.170337609049762E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H25">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I25">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J25">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.176245</v>
+        <v>0.119881</v>
       </c>
       <c r="N25">
-        <v>0.5287350000000001</v>
+        <v>0.359643</v>
       </c>
       <c r="O25">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="P25">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="Q25">
-        <v>0.3138450525916667</v>
+        <v>0.02461472616633333</v>
       </c>
       <c r="R25">
-        <v>2.824605473325001</v>
+        <v>0.221532535497</v>
       </c>
       <c r="S25">
-        <v>4.095817126384384E-05</v>
+        <v>3.785241633974995E-06</v>
       </c>
       <c r="T25">
-        <v>4.095817126384384E-05</v>
+        <v>3.785241633974997E-06</v>
       </c>
     </row>
   </sheetData>
